--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y269"/>
+  <dimension ref="A1:Y270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="R268" s="2" t="inlineStr"/>
     </row>
-    <row r="269">
+    <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
           <t>A 38523-2023</t>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16131,6 +16131,63 @@
         <v>0</v>
       </c>
       <c r="R269" s="2" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>A 41429-2023</t>
+        </is>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/artfynd/A 10098-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/artfynd/A 10098-2021.xlsx", "A 10098-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/kartor/A 10098-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/kartor/A 10098-2021.png", "A 10098-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomål/A 10098-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomål/A 10098-2021.docx", "A 10098-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomålsmail/A 10098-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomålsmail/A 10098-2021.docx", "A 10098-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsyn/A 10098-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsyn/A 10098-2021.docx", "A 10098-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsynsmail/A 10098-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsynsmail/A 10098-2021.docx", "A 10098-2021")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -715,27 +715,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/artfynd/A 60826-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/artfynd/A 60826-2022.xlsx", "A 60826-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/kartor/A 60826-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/kartor/A 60826-2022.png", "A 60826-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomål/A 60826-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomål/A 60826-2022.docx", "A 60826-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomålsmail/A 60826-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomålsmail/A 60826-2022.docx", "A 60826-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsyn/A 60826-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsyn/A 60826-2022.docx", "A 60826-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsynsmail/A 60826-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsynsmail/A 60826-2022.docx", "A 60826-2022")</f>
         <v/>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/artfynd/A 34357-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/artfynd/A 34357-2022.xlsx", "A 34357-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/kartor/A 34357-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/kartor/A 34357-2022.png", "A 34357-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomål/A 34357-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomål/A 34357-2022.docx", "A 34357-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomålsmail/A 34357-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomålsmail/A 34357-2022.docx", "A 34357-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsyn/A 34357-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsyn/A 34357-2022.docx", "A 34357-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsynsmail/A 34357-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsynsmail/A 34357-2022.docx", "A 34357-2022")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,27 +885,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/artfynd/A 15321-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/artfynd/A 15321-2023.xlsx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/kartor/A 15321-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/kartor/A 15321-2023.png", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomål/A 15321-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomål/A 15321-2023.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomålsmail/A 15321-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/klagomålsmail/A 15321-2023.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsyn/A 15321-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsyn/A 15321-2023.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsynsmail/A 15321-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GRUMS/tillsynsmail/A 15321-2023.docx", "A 15321-2023")</f>
         <v/>
       </c>
     </row>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y270"/>
+  <dimension ref="A1:Y271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="R269" s="2" t="inlineStr"/>
     </row>
-    <row r="270">
+    <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
           <t>A 41429-2023</t>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16188,6 +16188,63 @@
         <v>0</v>
       </c>
       <c r="R270" s="2" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>A 47152-2023</t>
+        </is>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>45201</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>45201</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -572,7 +572,7 @@
         <v>44253</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44907</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44792</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43352</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43352</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>43352</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>43371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>43371</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>43424</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43425</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43471</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43497</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>43497</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>43500</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>43502</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43507</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43511</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43528</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43544</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43557</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43559</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>43561</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>43563</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>43564</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>43573</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>43579</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>43587</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43588</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43588</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43591</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43605</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43612</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>43613</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>43613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>43614</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>43636</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>43642</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         <v>43642</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43642</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>43643</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43655</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43710</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>43724</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43768</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43768</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43768</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43775</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43780</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43787</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43795</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43858</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>43859</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>43864</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>43864</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43864</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>43873</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>43891</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>43891</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>43891</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>43891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43893</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43894</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>43902</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>43902</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43906</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43907</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43908</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43930</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43938</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43950</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43952</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>43958</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43992</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43993</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44019</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44034</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>44039</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>44046</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>44046</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44050</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>44050</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44050</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44054</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44057</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44057</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>44060</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         <v>44060</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>44060</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>44060</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>44068</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>44070</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44070</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>44070</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>44070</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>44074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
         <v>44085</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>44085</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>44089</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44090</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44092</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44102</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44137</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44155</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44171</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44176</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44176</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44204</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44208</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44214</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44228</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44238</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44258</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44265</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44267</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44271</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44286</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44289</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44292</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44292</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44299</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44326</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44328</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44342</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44364</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44369</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44383</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44391</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44412</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44413</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44417</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44424</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44425</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>44434</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44439</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44441</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44442</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44452</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44460</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>44467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>44467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44468</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44470</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44470</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44494</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>44498</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>44509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>44509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>44509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44509</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>44516</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>44519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44532</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44539</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>44547</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44547</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44550</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44552</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44582</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44588</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>44588</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44620</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44620</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44627</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44627</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44628</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44635</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44645</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44690</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44732</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44734</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44735</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>44743</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44753</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44753</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44755</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44781</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44782</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44784</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44785</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44788</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44795</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44795</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44797</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>44806</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44806</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44807</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44819</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>44823</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>44831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>44838</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44845</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44845</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44860</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44890</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44893</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44907</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>44924</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44956</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44956</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44958</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44958</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44972</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>44981</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44998</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44998</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45002</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45011</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45029</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45049</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45049</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45061</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45078</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         <v>45078</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>45079</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45089</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45107</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45107</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45107</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45113</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45124</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45132</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45152</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45152</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45159</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45162</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>45201</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
